--- a/biology/Zoologie/Globignatha_rohri/Globignatha_rohri.xlsx
+++ b/biology/Zoologie/Globignatha_rohri/Globignatha_rohri.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Globignatha rohri est une espèce d'araignées aranéomorphes de la famille des Symphytognathidae[1].
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Globignatha rohri est une espèce d'araignées aranéomorphes de la famille des Symphytognathidae.
 </t>
         </is>
       </c>
@@ -511,9 +523,11 @@
           <t>Distribution</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Cette espèce est endémique du Pará au Brésil[1],[2].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Cette espèce est endémique du Pará au Brésil,.
 </t>
         </is>
       </c>
@@ -542,7 +556,9 @@
           <t>Publication originale</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t>Balogh &amp; Loksa, 1968 : The scientific results of the Hungarian soil zoological expeditions to South America. 7. Arachnoidea. Description of Brasilian spiders of the family Symphytognathidae. Acta zoologica Academiae Scientiarum Hungaricae, vol. 14, p. 287-294.</t>
         </is>
